--- a/hardware/doc/piezopiano_v13_jlc_bom_20220125.xlsx
+++ b/hardware/doc/piezopiano_v13_jlc_bom_20220125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zapfl\Git\PiezoPiano\hardware\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B514169-0ADF-4F4A-8189-C678A4E0F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5357AAE6-3759-4953-8622-42F4516EB697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="4776" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="9795" windowWidth="23010" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
     <t>C219727</t>
   </si>
   <si>
-    <t>C25197</t>
+    <t>C25804</t>
   </si>
 </sst>
 </file>
@@ -534,18 +534,18 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A18" sqref="A14:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -573,7 +573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -587,7 +587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -601,7 +601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -615,7 +615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -629,7 +629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -643,7 +643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -654,7 +654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -665,7 +665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -690,7 +690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -704,7 +704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -718,7 +718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -730,7 +730,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -752,7 +752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -763,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
